--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>45.6296140759101</v>
+        <v>27.14432639636872</v>
       </c>
       <c r="C2" t="n">
-        <v>25.6556405340925</v>
+        <v>6.809768653627423</v>
       </c>
       <c r="D2" t="n">
-        <v>66.33514516626808</v>
+        <v>46.36315070923291</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45033</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45054</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>45.76178454484108</v>
+        <v>43.0381236451322</v>
       </c>
       <c r="C3" t="n">
-        <v>25.1055515042943</v>
+        <v>24.44177976980054</v>
       </c>
       <c r="D3" t="n">
-        <v>65.73719945759332</v>
+        <v>63.79570578766644</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45049</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B4" t="n">
+        <v>47.40930285230638</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.94166957452913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.06443147171329</v>
+      </c>
+      <c r="E4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47.3580190516215</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.82659601884044</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.93633536727805</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B4" t="n">
-        <v>48.73145636758813</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27.96535807592156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.73119625744964</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B6" t="n">
+        <v>47.30139943567986</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.27292511665511</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.87727060091375</v>
+      </c>
+      <c r="E6" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -542,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,25 +634,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1700.590413926108</v>
+        <v>775.9385519120406</v>
       </c>
       <c r="C2" t="n">
-        <v>41.23821545515892</v>
+        <v>27.85567360363128</v>
       </c>
       <c r="D2" t="n">
-        <v>41.23821545515892</v>
+        <v>27.85567360363128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4740024764960796</v>
+        <v>0.506466792793296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4740024764960796</v>
+        <v>0.506466792793296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6212362329497081</v>
+        <v>0.6782129655362947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -620,27 +660,53 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1571.486653511604</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.6419809483785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.6419809483785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4556549534296379</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4556549534296379</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5900947517415794</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>215.8356203510771</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.69134508311193</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.05092114583902</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3847831516531761</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3847831516531761</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2849762270026783</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="n">
+        <v>244.0881012992879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.62331915116912</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.89085954761802</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.334626993619395</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3058367154010936</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2941207224865889</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>27.14432639636872</v>
+        <v>27.1443263963682</v>
       </c>
       <c r="C2" t="n">
-        <v>6.809768653627423</v>
+        <v>7.892632604295843</v>
       </c>
       <c r="D2" t="n">
-        <v>46.36315070923291</v>
+        <v>48.37020635377467</v>
       </c>
       <c r="E2" t="n">
         <v>55</v>
@@ -496,13 +496,13 @@
         <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>43.0381236451322</v>
+        <v>43.03812364513164</v>
       </c>
       <c r="C3" t="n">
-        <v>24.44177976980054</v>
+        <v>22.23517952976063</v>
       </c>
       <c r="D3" t="n">
-        <v>63.79570578766644</v>
+        <v>63.52529269931433</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>47.40930285230638</v>
+        <v>47.40930285231052</v>
       </c>
       <c r="C4" t="n">
-        <v>25.94166957452913</v>
+        <v>27.7267684782898</v>
       </c>
       <c r="D4" t="n">
-        <v>67.06443147171329</v>
+        <v>66.43884779593756</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
@@ -536,13 +536,13 @@
         <v>45054</v>
       </c>
       <c r="B5" t="n">
-        <v>47.3580190516215</v>
+        <v>47.35801908646464</v>
       </c>
       <c r="C5" t="n">
-        <v>28.82659601884044</v>
+        <v>27.47044736438779</v>
       </c>
       <c r="D5" t="n">
-        <v>66.93633536727805</v>
+        <v>66.09818793672572</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
@@ -556,13 +556,13 @@
         <v>45063</v>
       </c>
       <c r="B6" t="n">
-        <v>47.30139943567986</v>
+        <v>47.30139947201533</v>
       </c>
       <c r="C6" t="n">
-        <v>25.27292511665511</v>
+        <v>26.30697607890641</v>
       </c>
       <c r="D6" t="n">
-        <v>68.87727060091375</v>
+        <v>70.12647295039895</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>775.9385519120406</v>
+        <v>775.9385519120697</v>
       </c>
       <c r="C2" t="n">
-        <v>27.85567360363128</v>
+        <v>27.8556736036318</v>
       </c>
       <c r="D2" t="n">
-        <v>27.85567360363128</v>
+        <v>27.8556736036318</v>
       </c>
       <c r="E2" t="n">
-        <v>0.506466792793296</v>
+        <v>0.5064667927933055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.506466792793296</v>
+        <v>0.5064667927933055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6782129655362947</v>
+        <v>0.6782129655363117</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1571.486653511604</v>
+        <v>1571.486650749101</v>
       </c>
       <c r="C3" t="n">
-        <v>39.6419809483785</v>
+        <v>39.64198091353536</v>
       </c>
       <c r="D3" t="n">
-        <v>39.6419809483785</v>
+        <v>39.64198091353536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4556549534296379</v>
+        <v>0.455654953029142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4556549534296379</v>
+        <v>0.455654953029142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5900947517415794</v>
+        <v>0.5900947510698887</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>244.0881012992879</v>
+        <v>244.0881017668463</v>
       </c>
       <c r="C4" t="n">
-        <v>15.62331915116912</v>
+        <v>15.6233191661326</v>
       </c>
       <c r="D4" t="n">
-        <v>12.89085954761802</v>
+        <v>12.8908595597314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.334626993619395</v>
+        <v>0.3346269940519924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3058367154010936</v>
+        <v>0.3058367154011026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2941207224865889</v>
+        <v>0.2941207227258553</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45020</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>27.1443263963682</v>
+        <v>45.62961407554035</v>
       </c>
       <c r="C2" t="n">
-        <v>7.892632604295843</v>
+        <v>25.63438640563501</v>
       </c>
       <c r="D2" t="n">
-        <v>48.37020635377467</v>
+        <v>67.72168451062002</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45026</v>
+        <v>45054</v>
       </c>
       <c r="B3" t="n">
-        <v>43.03812364513164</v>
+        <v>45.76178460232333</v>
       </c>
       <c r="C3" t="n">
-        <v>22.23517952976063</v>
+        <v>26.79879499726415</v>
       </c>
       <c r="D3" t="n">
-        <v>63.52529269931433</v>
+        <v>66.95756343679381</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45063</v>
       </c>
       <c r="B4" t="n">
-        <v>47.40930285231052</v>
+        <v>48.73145633414818</v>
       </c>
       <c r="C4" t="n">
-        <v>27.7267684782898</v>
+        <v>27.09427993536531</v>
       </c>
       <c r="D4" t="n">
-        <v>66.43884779593756</v>
+        <v>71.53600039872514</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="B5" t="n">
-        <v>47.35801908646464</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27.47044736438779</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.09818793672572</v>
-      </c>
-      <c r="E5" t="n">
-        <v>87</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45049</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="B6" t="n">
-        <v>47.30139947201533</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26.30697607890641</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70.12647295039895</v>
-      </c>
-      <c r="E6" t="n">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -582,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,25 +594,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>775.9385519120697</v>
+        <v>1700.590409185177</v>
       </c>
       <c r="C2" t="n">
-        <v>27.8556736036318</v>
+        <v>41.23821539767667</v>
       </c>
       <c r="D2" t="n">
-        <v>27.8556736036318</v>
+        <v>41.23821539767667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5064667927933055</v>
+        <v>0.474002475835364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5064667927933055</v>
+        <v>0.474002475835364</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6782129655363117</v>
+        <v>0.6212362318147838</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -660,53 +620,27 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1571.486650749101</v>
+        <v>215.835619658325</v>
       </c>
       <c r="C3" t="n">
-        <v>39.64198091353536</v>
+        <v>14.69134505953505</v>
       </c>
       <c r="D3" t="n">
-        <v>39.64198091353536</v>
+        <v>11.05092112930392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.455654953029142</v>
+        <v>0.3847831510599677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455654953029142</v>
+        <v>0.3847831510599677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5900947510698887</v>
+        <v>0.2849762266886708</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>244.0881017668463</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.6233191661326</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.8908595597314</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3346269940519924</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3058367154011026</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2941207227258553</v>
-      </c>
-      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
